--- a/deap/mj_projects/definitionbooks/nsga1_zdt1_Xbinary_Mbinary_EXE.xlsx
+++ b/deap/mj_projects/definitionbooks/nsga1_zdt1_Xbinary_Mbinary_EXE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17490" windowHeight="6900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17490" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>Yes</t>
   </si>
@@ -115,33 +115,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>var1</t>
-  </si>
-  <si>
-    <t>var2</t>
-  </si>
-  <si>
-    <t>var3</t>
-  </si>
-  <si>
-    <t>var4</t>
-  </si>
-  <si>
-    <t>var5</t>
-  </si>
-  <si>
-    <t>var6</t>
-  </si>
-  <si>
-    <t>var7</t>
-  </si>
-  <si>
-    <t>var8</t>
-  </si>
-  <si>
-    <t>var9</t>
-  </si>
-  <si>
     <t>var10</t>
   </si>
   <si>
@@ -304,10 +277,52 @@
     <t>D:\Projects\PhDprojects\testZDT1exe</t>
   </si>
   <si>
-    <t>D:\Projects\PhDprojects\testZDT1exe\ZDT1EXE\testinput1</t>
-  </si>
-  <si>
     <t>mj_zdt1_decimal_exe</t>
+  </si>
+  <si>
+    <t>replace_sigil</t>
+  </si>
+  <si>
+    <t>#$</t>
+  </si>
+  <si>
+    <t>D:\Projects\PhDprojects\testZDT1exe\ZDT1EXE\template.txt</t>
+  </si>
+  <si>
+    <t>var01</t>
+  </si>
+  <si>
+    <t>var02</t>
+  </si>
+  <si>
+    <t>var03</t>
+  </si>
+  <si>
+    <t>var04</t>
+  </si>
+  <si>
+    <t>var05</t>
+  </si>
+  <si>
+    <t>var06</t>
+  </si>
+  <si>
+    <t>var07</t>
+  </si>
+  <si>
+    <t>var08</t>
+  </si>
+  <si>
+    <t>var09</t>
+  </si>
+  <si>
+    <t>evaluator</t>
+  </si>
+  <si>
+    <t>evaluate_pop_parallel</t>
+  </si>
+  <si>
+    <t>mj_utilities.util_general</t>
   </si>
 </sst>
 </file>
@@ -683,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,23 +712,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE(B1,"\",B2)</f>
@@ -722,7 +737,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -730,7 +745,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -738,7 +753,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -746,18 +761,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -782,13 +805,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -799,7 +822,7 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,12 +833,12 @@
         <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -826,7 +849,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -837,7 +860,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -848,7 +871,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B7" s="8">
         <v>3.3333333333333333E-2</v>
@@ -864,11 +887,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -878,35 +899,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -932,35 +964,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +1005,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1035,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1020,7 +1052,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1037,7 +1069,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1054,7 +1086,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1071,7 +1103,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1088,7 +1120,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1105,7 +1137,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1122,7 +1154,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1139,7 +1171,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1156,7 +1188,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1173,7 +1205,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1190,7 +1222,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1207,7 +1239,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1224,7 +1256,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1241,7 +1273,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1258,7 +1290,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1275,7 +1307,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1292,7 +1324,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1309,7 +1341,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1326,7 +1358,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1343,7 +1375,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1360,7 +1392,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1377,7 +1409,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1394,7 +1426,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1411,7 +1443,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1428,7 +1460,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1445,7 +1477,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1462,7 +1494,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1479,7 +1511,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1496,7 +1528,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1589,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/deap/mj_projects/definitionbooks/nsga1_zdt1_Xbinary_Mbinary_EXE.xlsx
+++ b/deap/mj_projects/definitionbooks/nsga1_zdt1_Xbinary_Mbinary_EXE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17490" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17490" windowHeight="6900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="3" r:id="rId1"/>
@@ -15,17 +15,17 @@
     <sheet name="List Variables" sheetId="8" r:id="rId6"/>
     <sheet name="Objectives" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Autor</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -399,7 +399,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -407,14 +407,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -452,9 +455,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,7 +492,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +527,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -700,11 +703,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
@@ -798,7 +801,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
@@ -889,9 +892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -955,7 +960,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
@@ -1008,7 +1013,7 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -1557,7 +1562,7 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -1611,7 +1616,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>

--- a/deap/mj_projects/definitionbooks/nsga1_zdt1_Xbinary_Mbinary_EXE.xlsx
+++ b/deap/mj_projects/definitionbooks/nsga1_zdt1_Xbinary_Mbinary_EXE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17490" windowHeight="6900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17490" windowHeight="6900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="3" r:id="rId1"/>
@@ -15,17 +15,17 @@
     <sheet name="List Variables" sheetId="8" r:id="rId6"/>
     <sheet name="Objectives" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
   <si>
     <t>Yes</t>
   </si>
@@ -205,9 +205,6 @@
     <t>nsga2</t>
   </si>
   <si>
-    <t>evaluate</t>
-  </si>
-  <si>
     <t>select</t>
   </si>
   <si>
@@ -316,13 +313,22 @@
     <t>var09</t>
   </si>
   <si>
-    <t>evaluator</t>
-  </si>
-  <si>
-    <t>evaluate_pop_parallel</t>
-  </si>
-  <si>
-    <t>mj_utilities.util_general</t>
+    <t>life_cycle</t>
+  </si>
+  <si>
+    <t>execution</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>parallel_delay</t>
+  </si>
+  <si>
+    <t>Maximum_CPU</t>
+  </si>
+  <si>
+    <t>Maximum_processes</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -415,9 +421,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -455,9 +461,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,7 +498,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,7 +533,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
@@ -718,7 +724,7 @@
         <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +762,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -764,26 +770,58 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" t="s">
-        <v>71</v>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +839,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
@@ -811,10 +849,10 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,7 +863,7 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,12 +874,12 @@
         <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -852,7 +890,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -863,7 +901,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -874,7 +912,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="8">
         <v>3.3333333333333333E-2</v>
@@ -890,38 +928,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,21 +967,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +987,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
@@ -969,35 +996,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1009,11 +1036,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -1040,7 +1067,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1049,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1057,7 +1084,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1066,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1074,7 +1101,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1083,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1091,7 +1118,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1100,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1108,7 +1135,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1117,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1125,7 +1152,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1134,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1142,7 +1169,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1151,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1159,7 +1186,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1168,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1176,7 +1203,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1185,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1202,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1219,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1236,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1253,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1270,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1287,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1304,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1321,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1338,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -1355,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1372,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -1389,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1406,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -1423,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1440,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1457,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1474,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1491,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1508,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -1525,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1542,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -1562,7 +1589,7 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -1616,7 +1643,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>

--- a/deap/mj_projects/definitionbooks/nsga1_zdt1_Xbinary_Mbinary_EXE.xlsx
+++ b/deap/mj_projects/definitionbooks/nsga1_zdt1_Xbinary_Mbinary_EXE.xlsx
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
